--- a/retail_vol_f.xlsx
+++ b/retail_vol_f.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,315 @@
   </si>
   <si>
     <t>rubusd</t>
+  </si>
+  <si>
+    <t>01.10.2017</t>
+  </si>
+  <si>
+    <t>01.09.2017</t>
+  </si>
+  <si>
+    <t>01.08.2017</t>
+  </si>
+  <si>
+    <t>01.07.2017</t>
+  </si>
+  <si>
+    <t>01.06.2017</t>
+  </si>
+  <si>
+    <t>01.05.2017</t>
+  </si>
+  <si>
+    <t>01.04.2017</t>
+  </si>
+  <si>
+    <t>01.03.2017</t>
+  </si>
+  <si>
+    <t>01.02.2017</t>
+  </si>
+  <si>
+    <t>01.01.2017</t>
+  </si>
+  <si>
+    <t>01.12.2016</t>
+  </si>
+  <si>
+    <t>01.11.2016</t>
+  </si>
+  <si>
+    <t>01.10.2016</t>
+  </si>
+  <si>
+    <t>01.09.2016</t>
+  </si>
+  <si>
+    <t>01.08.2016</t>
+  </si>
+  <si>
+    <t>01.07.2016</t>
+  </si>
+  <si>
+    <t>01.06.2016</t>
+  </si>
+  <si>
+    <t>01.05.2016</t>
+  </si>
+  <si>
+    <t>01.04.2016</t>
+  </si>
+  <si>
+    <t>01.03.2016</t>
+  </si>
+  <si>
+    <t>01.02.2016</t>
+  </si>
+  <si>
+    <t>01.01.2016</t>
+  </si>
+  <si>
+    <t>01.12.2015</t>
+  </si>
+  <si>
+    <t>01.11.2015</t>
+  </si>
+  <si>
+    <t>01.10.2015</t>
+  </si>
+  <si>
+    <t>01.09.2015</t>
+  </si>
+  <si>
+    <t>01.08.2015</t>
+  </si>
+  <si>
+    <t>01.07.2015</t>
+  </si>
+  <si>
+    <t>01.06.2015</t>
+  </si>
+  <si>
+    <t>01.05.2015</t>
+  </si>
+  <si>
+    <t>01.04.2015</t>
+  </si>
+  <si>
+    <t>01.03.2015</t>
+  </si>
+  <si>
+    <t>01.02.2015</t>
+  </si>
+  <si>
+    <t>01.01.2015</t>
+  </si>
+  <si>
+    <t>01.12.2014</t>
+  </si>
+  <si>
+    <t>01.11.2014</t>
+  </si>
+  <si>
+    <t>01.10.2014</t>
+  </si>
+  <si>
+    <t>01.09.2014</t>
+  </si>
+  <si>
+    <t>01.08.2014</t>
+  </si>
+  <si>
+    <t>01.07.2014</t>
+  </si>
+  <si>
+    <t>01.06.2014</t>
+  </si>
+  <si>
+    <t>01.05.2014</t>
+  </si>
+  <si>
+    <t>01.04.2014</t>
+  </si>
+  <si>
+    <t>01.03.2014</t>
+  </si>
+  <si>
+    <t>01.02.2014</t>
+  </si>
+  <si>
+    <t>01.01.2014</t>
+  </si>
+  <si>
+    <t>01.12.2013</t>
+  </si>
+  <si>
+    <t>01.11.2013</t>
+  </si>
+  <si>
+    <t>01.10.2013</t>
+  </si>
+  <si>
+    <t>01.09.2013</t>
+  </si>
+  <si>
+    <t>01.08.2013</t>
+  </si>
+  <si>
+    <t>01.07.2013</t>
+  </si>
+  <si>
+    <t>01.06.2013</t>
+  </si>
+  <si>
+    <t>01.05.2013</t>
+  </si>
+  <si>
+    <t>01.04.2013</t>
+  </si>
+  <si>
+    <t>01.03.2013</t>
+  </si>
+  <si>
+    <t>01.02.2013</t>
+  </si>
+  <si>
+    <t>01.01.2013</t>
+  </si>
+  <si>
+    <t>01.12.2012</t>
+  </si>
+  <si>
+    <t>01.11.2012</t>
+  </si>
+  <si>
+    <t>01.10.2012</t>
+  </si>
+  <si>
+    <t>01.09.2012</t>
+  </si>
+  <si>
+    <t>01.08.2012</t>
+  </si>
+  <si>
+    <t>01.07.2012</t>
+  </si>
+  <si>
+    <t>01.06.2012</t>
+  </si>
+  <si>
+    <t>01.05.2012</t>
+  </si>
+  <si>
+    <t>01.04.2012</t>
+  </si>
+  <si>
+    <t>01.03.2012</t>
+  </si>
+  <si>
+    <t>01.02.2012</t>
+  </si>
+  <si>
+    <t>01.01.2012</t>
+  </si>
+  <si>
+    <t>01.12.2011</t>
+  </si>
+  <si>
+    <t>01.11.2011</t>
+  </si>
+  <si>
+    <t>01.10.2011</t>
+  </si>
+  <si>
+    <t>01.09.2011</t>
+  </si>
+  <si>
+    <t>01.08.2011</t>
+  </si>
+  <si>
+    <t>01.07.2011</t>
+  </si>
+  <si>
+    <t>01.06.2011</t>
+  </si>
+  <si>
+    <t>01.05.2011</t>
+  </si>
+  <si>
+    <t>01.04.2011</t>
+  </si>
+  <si>
+    <t>01.03.2011</t>
+  </si>
+  <si>
+    <t>01.02.2011</t>
+  </si>
+  <si>
+    <t>01.01.2011</t>
+  </si>
+  <si>
+    <t>01.12.2010</t>
+  </si>
+  <si>
+    <t>01.11.2010</t>
+  </si>
+  <si>
+    <t>01.10.2010</t>
+  </si>
+  <si>
+    <t>01.09.2010</t>
+  </si>
+  <si>
+    <t>01.08.2010</t>
+  </si>
+  <si>
+    <t>01.07.2010</t>
+  </si>
+  <si>
+    <t>01.06.2010</t>
+  </si>
+  <si>
+    <t>01.05.2010</t>
+  </si>
+  <si>
+    <t>01.04.2010</t>
+  </si>
+  <si>
+    <t>01.03.2010</t>
+  </si>
+  <si>
+    <t>01.02.2010</t>
+  </si>
+  <si>
+    <t>01.01.2010</t>
+  </si>
+  <si>
+    <t>01.12.2009</t>
+  </si>
+  <si>
+    <t>01.11.2009</t>
+  </si>
+  <si>
+    <t>01.10.2009</t>
+  </si>
+  <si>
+    <t>01.09.2009</t>
+  </si>
+  <si>
+    <t>01.08.2009</t>
+  </si>
+  <si>
+    <t>01.07.2009</t>
+  </si>
+  <si>
+    <t>01.06.2009</t>
+  </si>
+  <si>
+    <t>01.05.2009</t>
+  </si>
+  <si>
+    <t>01.04.2009</t>
   </si>
 </sst>
 </file>
@@ -9717,9 +10026,6 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
-          <cell r="A2" t="str">
-            <v>01.10.2017</v>
-          </cell>
           <cell r="B2">
             <v>6354169</v>
           </cell>
@@ -9749,9 +10055,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>01.09.2017</v>
-          </cell>
           <cell r="B3">
             <v>5563615</v>
           </cell>
@@ -9781,9 +10084,6 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>01.08.2017</v>
-          </cell>
           <cell r="B4">
             <v>4745855</v>
           </cell>
@@ -9813,9 +10113,6 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>01.07.2017</v>
-          </cell>
           <cell r="B5">
             <v>3965318</v>
           </cell>
@@ -9845,9 +10142,6 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>01.06.2017</v>
-          </cell>
           <cell r="B6">
             <v>3200371</v>
           </cell>
@@ -9877,9 +10171,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>01.05.2017</v>
-          </cell>
           <cell r="B7">
             <v>2446580</v>
           </cell>
@@ -9909,9 +10200,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>01.04.2017</v>
-          </cell>
           <cell r="B8">
             <v>1779223</v>
           </cell>
@@ -9941,9 +10229,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>01.03.2017</v>
-          </cell>
           <cell r="B9">
             <v>1058361</v>
           </cell>
@@ -9973,9 +10258,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>01.02.2017</v>
-          </cell>
           <cell r="B10">
             <v>496276</v>
           </cell>
@@ -10005,9 +10287,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>01.01.2017</v>
-          </cell>
           <cell r="B11">
             <v>7210282</v>
           </cell>
@@ -10037,9 +10316,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>01.12.2016</v>
-          </cell>
           <cell r="B12">
             <v>6441931</v>
           </cell>
@@ -10069,9 +10345,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>01.11.2016</v>
-          </cell>
           <cell r="B13">
             <v>5788280</v>
           </cell>
@@ -10101,9 +10374,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>01.10.2016</v>
-          </cell>
           <cell r="B14">
             <v>5155837</v>
           </cell>
@@ -10133,9 +10403,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>01.09.2016</v>
-          </cell>
           <cell r="B15">
             <v>4526468</v>
           </cell>
@@ -10165,9 +10432,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>01.08.2016</v>
-          </cell>
           <cell r="B16">
             <v>3871533</v>
           </cell>
@@ -10197,9 +10461,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>01.07.2016</v>
-          </cell>
           <cell r="B17">
             <v>3275008</v>
           </cell>
@@ -10229,9 +10490,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>01.06.2016</v>
-          </cell>
           <cell r="B18">
             <v>2670535</v>
           </cell>
@@ -10261,9 +10519,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>01.05.2016</v>
-          </cell>
           <cell r="B19">
             <v>2105176</v>
           </cell>
@@ -10293,9 +10548,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>01.04.2016</v>
-          </cell>
           <cell r="B20">
             <v>1508647</v>
           </cell>
@@ -10325,9 +10577,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>01.03.2016</v>
-          </cell>
           <cell r="B21">
             <v>942325</v>
           </cell>
@@ -10357,9 +10606,6 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>01.02.2016</v>
-          </cell>
           <cell r="B22">
             <v>405290</v>
           </cell>
@@ -10389,9 +10635,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>01.01.2016</v>
-          </cell>
           <cell r="B23">
             <v>5861351</v>
           </cell>
@@ -10421,9 +10664,6 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>01.12.2015</v>
-          </cell>
           <cell r="B24">
             <v>5180643</v>
           </cell>
@@ -10453,9 +10693,6 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
-            <v>01.11.2015</v>
-          </cell>
           <cell r="B25">
             <v>4653377</v>
           </cell>
@@ -10485,9 +10722,6 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26" t="str">
-            <v>01.10.2015</v>
-          </cell>
           <cell r="B26">
             <v>4122883</v>
           </cell>
@@ -10517,9 +10751,6 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>01.09.2015</v>
-          </cell>
           <cell r="B27">
             <v>3590992</v>
           </cell>
@@ -10549,9 +10780,6 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28" t="str">
-            <v>01.08.2015</v>
-          </cell>
           <cell r="B28">
             <v>3058003</v>
           </cell>
@@ -10581,9 +10809,6 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29" t="str">
-            <v>01.07.2015</v>
-          </cell>
           <cell r="B29">
             <v>2518529</v>
           </cell>
@@ -10613,9 +10838,6 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="A30" t="str">
-            <v>01.06.2015</v>
-          </cell>
           <cell r="B30">
             <v>2001890</v>
           </cell>
@@ -10645,9 +10867,6 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="A31" t="str">
-            <v>01.05.2015</v>
-          </cell>
           <cell r="B31">
             <v>1565165</v>
           </cell>
@@ -10677,9 +10896,6 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="A32" t="str">
-            <v>01.04.2015</v>
-          </cell>
           <cell r="B32">
             <v>1108424</v>
           </cell>
@@ -10709,9 +10925,6 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33" t="str">
-            <v>01.03.2015</v>
-          </cell>
           <cell r="B33">
             <v>693115</v>
           </cell>
@@ -10741,9 +10954,6 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34" t="str">
-            <v>01.02.2015</v>
-          </cell>
           <cell r="B34">
             <v>332539</v>
           </cell>
@@ -10773,9 +10983,6 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35" t="str">
-            <v>01.01.2015</v>
-          </cell>
           <cell r="B35">
             <v>8629722</v>
           </cell>
@@ -10805,9 +11012,6 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="A36" t="str">
-            <v>01.12.2014</v>
-          </cell>
           <cell r="B36">
             <v>7791974</v>
           </cell>
@@ -10837,9 +11041,6 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37" t="str">
-            <v>01.11.2014</v>
-          </cell>
           <cell r="B37">
             <v>7129768</v>
           </cell>
@@ -10869,9 +11070,6 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="A38" t="str">
-            <v>01.10.2014</v>
-          </cell>
           <cell r="B38">
             <v>6388476</v>
           </cell>
@@ -10901,9 +11099,6 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="A39" t="str">
-            <v>01.09.2014</v>
-          </cell>
           <cell r="B39">
             <v>5664410</v>
           </cell>
@@ -10933,9 +11128,6 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40" t="str">
-            <v>01.08.2014</v>
-          </cell>
           <cell r="B40">
             <v>4945578</v>
           </cell>
@@ -10965,9 +11157,6 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="A41" t="str">
-            <v>01.07.2014</v>
-          </cell>
           <cell r="B41">
             <v>4167632</v>
           </cell>
@@ -10997,9 +11186,6 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="A42" t="str">
-            <v>01.06.2014</v>
-          </cell>
           <cell r="B42">
             <v>3449073</v>
           </cell>
@@ -11029,9 +11215,6 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="A43" t="str">
-            <v>01.05.2014</v>
-          </cell>
           <cell r="B43">
             <v>2734124</v>
           </cell>
@@ -11061,9 +11244,6 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="A44" t="str">
-            <v>01.04.2014</v>
-          </cell>
           <cell r="B44">
             <v>1928825</v>
           </cell>
@@ -11093,9 +11273,6 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45" t="str">
-            <v>01.03.2014</v>
-          </cell>
           <cell r="B45">
             <v>1184701</v>
           </cell>
@@ -11125,9 +11302,6 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="A46" t="str">
-            <v>01.02.2014</v>
-          </cell>
           <cell r="B46">
             <v>533920</v>
           </cell>
@@ -11157,9 +11331,6 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47" t="str">
-            <v>01.01.2014</v>
-          </cell>
           <cell r="B47">
             <v>8778163</v>
           </cell>
@@ -11189,9 +11360,6 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="A48" t="str">
-            <v>01.12.2013</v>
-          </cell>
           <cell r="B48">
             <v>7863992</v>
           </cell>
@@ -11221,9 +11389,6 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="A49" t="str">
-            <v>01.11.2013</v>
-          </cell>
           <cell r="B49">
             <v>7108958</v>
           </cell>
@@ -11253,9 +11418,6 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50" t="str">
-            <v>01.10.2013</v>
-          </cell>
           <cell r="B50">
             <v>6318750</v>
           </cell>
@@ -11285,9 +11447,6 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="A51" t="str">
-            <v>01.09.2013</v>
-          </cell>
           <cell r="B51">
             <v>5585522</v>
           </cell>
@@ -11317,9 +11476,6 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="A52" t="str">
-            <v>01.08.2013</v>
-          </cell>
           <cell r="B52">
             <v>4801706</v>
           </cell>
@@ -11349,9 +11505,6 @@
           </cell>
         </row>
         <row r="53">
-          <cell r="A53" t="str">
-            <v>01.07.2013</v>
-          </cell>
           <cell r="B53">
             <v>3998802</v>
           </cell>
@@ -11381,9 +11534,6 @@
           </cell>
         </row>
         <row r="54">
-          <cell r="A54" t="str">
-            <v>01.06.2013</v>
-          </cell>
           <cell r="B54">
             <v>3268266</v>
           </cell>
@@ -11413,9 +11563,6 @@
           </cell>
         </row>
         <row r="55">
-          <cell r="A55" t="str">
-            <v>01.05.2013</v>
-          </cell>
           <cell r="B55">
             <v>2559558</v>
           </cell>
@@ -11445,9 +11592,6 @@
           </cell>
         </row>
         <row r="56">
-          <cell r="A56" t="str">
-            <v>01.04.2013</v>
-          </cell>
           <cell r="B56">
             <v>1760824</v>
           </cell>
@@ -11477,9 +11621,6 @@
           </cell>
         </row>
         <row r="57">
-          <cell r="A57" t="str">
-            <v>01.03.2013</v>
-          </cell>
           <cell r="B57">
             <v>1093405</v>
           </cell>
@@ -11509,9 +11650,6 @@
           </cell>
         </row>
         <row r="58">
-          <cell r="A58" t="str">
-            <v>01.02.2013</v>
-          </cell>
           <cell r="B58">
             <v>502338</v>
           </cell>
@@ -11541,9 +11679,6 @@
           </cell>
         </row>
         <row r="59">
-          <cell r="A59" t="str">
-            <v>01.01.2013</v>
-          </cell>
           <cell r="B59">
             <v>7226423</v>
           </cell>
@@ -11573,9 +11708,6 @@
           </cell>
         </row>
         <row r="60">
-          <cell r="A60" t="str">
-            <v>01.12.2012</v>
-          </cell>
           <cell r="B60">
             <v>6479859</v>
           </cell>
@@ -11605,9 +11737,6 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61" t="str">
-            <v>01.11.2012</v>
-          </cell>
           <cell r="B61">
             <v>5829129</v>
           </cell>
@@ -11637,9 +11766,6 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="A62" t="str">
-            <v>01.10.2012</v>
-          </cell>
           <cell r="B62">
             <v>5159403</v>
           </cell>
@@ -11669,9 +11795,6 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="A63" t="str">
-            <v>01.09.2012</v>
-          </cell>
           <cell r="B63">
             <v>4559648</v>
           </cell>
@@ -11701,9 +11824,6 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="A64" t="str">
-            <v>01.08.2012</v>
-          </cell>
           <cell r="B64">
             <v>3899758</v>
           </cell>
@@ -11733,9 +11853,6 @@
           </cell>
         </row>
         <row r="65">
-          <cell r="A65" t="str">
-            <v>01.07.2012</v>
-          </cell>
           <cell r="B65">
             <v>3269943</v>
           </cell>
@@ -11765,9 +11882,6 @@
           </cell>
         </row>
         <row r="66">
-          <cell r="A66" t="str">
-            <v>01.06.2012</v>
-          </cell>
           <cell r="B66">
             <v>2664841</v>
           </cell>
@@ -11797,9 +11911,6 @@
           </cell>
         </row>
         <row r="67">
-          <cell r="A67" t="str">
-            <v>01.05.2012</v>
-          </cell>
           <cell r="B67">
             <v>2036783</v>
           </cell>
@@ -11829,9 +11940,6 @@
           </cell>
         </row>
         <row r="68">
-          <cell r="A68" t="str">
-            <v>01.04.2012</v>
-          </cell>
           <cell r="B68">
             <v>1433114</v>
           </cell>
@@ -11861,9 +11969,6 @@
           </cell>
         </row>
         <row r="69">
-          <cell r="A69" t="str">
-            <v>01.03.2012</v>
-          </cell>
           <cell r="B69">
             <v>864606</v>
           </cell>
@@ -11893,9 +11998,6 @@
           </cell>
         </row>
         <row r="70">
-          <cell r="A70" t="str">
-            <v>01.02.2012</v>
-          </cell>
           <cell r="B70">
             <v>386206</v>
           </cell>
@@ -11925,9 +12027,6 @@
           </cell>
         </row>
         <row r="71">
-          <cell r="A71" t="str">
-            <v>01.01.2012</v>
-          </cell>
           <cell r="B71">
             <v>5438651</v>
           </cell>
@@ -11957,9 +12056,6 @@
           </cell>
         </row>
         <row r="72">
-          <cell r="A72" t="str">
-            <v>01.12.2011</v>
-          </cell>
           <cell r="B72">
             <v>4772278</v>
           </cell>
@@ -11989,9 +12085,6 @@
           </cell>
         </row>
         <row r="73">
-          <cell r="A73" t="str">
-            <v>01.11.2011</v>
-          </cell>
           <cell r="B73">
             <v>4256066</v>
           </cell>
@@ -12021,9 +12114,6 @@
           </cell>
         </row>
         <row r="74">
-          <cell r="A74" t="str">
-            <v>01.10.2011</v>
-          </cell>
           <cell r="B74">
             <v>3759573</v>
           </cell>
@@ -12053,9 +12143,6 @@
           </cell>
         </row>
         <row r="75">
-          <cell r="A75" t="str">
-            <v>01.09.2011</v>
-          </cell>
           <cell r="B75">
             <v>3249147</v>
           </cell>
@@ -12085,9 +12172,6 @@
           </cell>
         </row>
         <row r="76">
-          <cell r="A76" t="str">
-            <v>01.08.2011</v>
-          </cell>
           <cell r="B76">
             <v>2750058</v>
           </cell>
@@ -12117,9 +12201,6 @@
           </cell>
         </row>
         <row r="77">
-          <cell r="A77" t="str">
-            <v>01.07.2011</v>
-          </cell>
           <cell r="B77">
             <v>2292797</v>
           </cell>
@@ -12149,9 +12230,6 @@
           </cell>
         </row>
         <row r="78">
-          <cell r="A78" t="str">
-            <v>01.06.2011</v>
-          </cell>
           <cell r="B78">
             <v>1834208</v>
           </cell>
@@ -12181,9 +12259,6 @@
           </cell>
         </row>
         <row r="79">
-          <cell r="A79" t="str">
-            <v>01.05.2011</v>
-          </cell>
           <cell r="B79">
             <v>1402414</v>
           </cell>
@@ -12213,9 +12288,6 @@
           </cell>
         </row>
         <row r="80">
-          <cell r="A80" t="str">
-            <v>01.04.2011</v>
-          </cell>
           <cell r="B80">
             <v>971855</v>
           </cell>
@@ -12245,9 +12317,6 @@
           </cell>
         </row>
         <row r="81">
-          <cell r="A81" t="str">
-            <v>01.03.2011</v>
-          </cell>
           <cell r="B81">
             <v>564373</v>
           </cell>
@@ -12277,9 +12346,6 @@
           </cell>
         </row>
         <row r="82">
-          <cell r="A82" t="str">
-            <v>01.02.2011</v>
-          </cell>
           <cell r="B82">
             <v>252499</v>
           </cell>
@@ -12309,9 +12375,6 @@
           </cell>
         </row>
         <row r="83">
-          <cell r="A83" t="str">
-            <v>01.01.2011</v>
-          </cell>
           <cell r="B83">
             <v>3649100</v>
           </cell>
@@ -12341,9 +12404,6 @@
           </cell>
         </row>
         <row r="84">
-          <cell r="A84" t="str">
-            <v>01.12.2010</v>
-          </cell>
           <cell r="B84">
             <v>3206188</v>
           </cell>
@@ -12373,9 +12433,6 @@
           </cell>
         </row>
         <row r="85">
-          <cell r="A85" t="str">
-            <v>01.11.2010</v>
-          </cell>
           <cell r="B85">
             <v>2854593</v>
           </cell>
@@ -12405,9 +12462,6 @@
           </cell>
         </row>
         <row r="86">
-          <cell r="A86" t="str">
-            <v>01.10.2010</v>
-          </cell>
           <cell r="B86">
             <v>2506139</v>
           </cell>
@@ -12437,9 +12491,6 @@
           </cell>
         </row>
         <row r="87">
-          <cell r="A87" t="str">
-            <v>01.09.2010</v>
-          </cell>
           <cell r="B87">
             <v>2169887</v>
           </cell>
@@ -12469,9 +12520,6 @@
           </cell>
         </row>
         <row r="88">
-          <cell r="A88" t="str">
-            <v>01.08.2010</v>
-          </cell>
           <cell r="B88">
             <v>1841939</v>
           </cell>
@@ -12501,9 +12549,6 @@
           </cell>
         </row>
         <row r="89">
-          <cell r="A89" t="str">
-            <v>01.07.2010</v>
-          </cell>
           <cell r="B89">
             <v>1510721</v>
           </cell>
@@ -12533,9 +12578,6 @@
           </cell>
         </row>
         <row r="90">
-          <cell r="A90" t="str">
-            <v>01.06.2010</v>
-          </cell>
           <cell r="B90">
             <v>1196179</v>
           </cell>
@@ -12565,9 +12607,6 @@
           </cell>
         </row>
         <row r="91">
-          <cell r="A91" t="str">
-            <v>01.05.2010</v>
-          </cell>
           <cell r="B91">
             <v>913381</v>
           </cell>
@@ -12597,9 +12636,6 @@
           </cell>
         </row>
         <row r="92">
-          <cell r="A92" t="str">
-            <v>01.04.2010</v>
-          </cell>
           <cell r="B92">
             <v>627265</v>
           </cell>
@@ -12629,9 +12665,6 @@
           </cell>
         </row>
         <row r="93">
-          <cell r="A93" t="str">
-            <v>01.03.2010</v>
-          </cell>
           <cell r="B93">
             <v>362727</v>
           </cell>
@@ -12661,9 +12694,6 @@
           </cell>
         </row>
         <row r="94">
-          <cell r="A94" t="str">
-            <v>01.02.2010</v>
-          </cell>
           <cell r="B94">
             <v>154787</v>
           </cell>
@@ -12693,9 +12723,6 @@
           </cell>
         </row>
         <row r="95">
-          <cell r="A95" t="str">
-            <v>01.01.2010</v>
-          </cell>
           <cell r="B95">
             <v>2610921.4</v>
           </cell>
@@ -12725,9 +12752,6 @@
           </cell>
         </row>
         <row r="96">
-          <cell r="A96" t="str">
-            <v>01.12.2009</v>
-          </cell>
           <cell r="B96">
             <v>2330862.2000000002</v>
           </cell>
@@ -12757,9 +12781,6 @@
           </cell>
         </row>
         <row r="97">
-          <cell r="A97" t="str">
-            <v>01.11.2009</v>
-          </cell>
           <cell r="B97">
             <v>2106882.5</v>
           </cell>
@@ -12789,9 +12810,6 @@
           </cell>
         </row>
         <row r="98">
-          <cell r="A98" t="str">
-            <v>01.10.2009</v>
-          </cell>
           <cell r="B98">
             <v>1865803.1</v>
           </cell>
@@ -12821,9 +12839,6 @@
           </cell>
         </row>
         <row r="99">
-          <cell r="A99" t="str">
-            <v>01.09.2009</v>
-          </cell>
           <cell r="B99">
             <v>1632674.9</v>
           </cell>
@@ -12853,9 +12868,6 @@
           </cell>
         </row>
         <row r="100">
-          <cell r="A100" t="str">
-            <v>01.08.2009</v>
-          </cell>
           <cell r="B100">
             <v>1405676.6</v>
           </cell>
@@ -12885,9 +12897,6 @@
           </cell>
         </row>
         <row r="101">
-          <cell r="A101" t="str">
-            <v>01.07.2009</v>
-          </cell>
           <cell r="B101">
             <v>1173184.3999999999</v>
           </cell>
@@ -12917,9 +12926,6 @@
           </cell>
         </row>
         <row r="102">
-          <cell r="A102" t="str">
-            <v>01.06.2009</v>
-          </cell>
           <cell r="B102">
             <v>906748.5</v>
           </cell>
@@ -12949,9 +12955,6 @@
           </cell>
         </row>
         <row r="103">
-          <cell r="A103" t="str">
-            <v>01.05.2009</v>
-          </cell>
           <cell r="B103">
             <v>685480.2</v>
           </cell>
@@ -12981,9 +12984,6 @@
           </cell>
         </row>
         <row r="104">
-          <cell r="A104" t="str">
-            <v>01.04.2009</v>
-          </cell>
           <cell r="B104">
             <v>456779.2</v>
           </cell>
@@ -13412,7 +13412,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13463,9 +13463,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
-        <f>[1]Total!A2</f>
-        <v>01.10.2017</v>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <f>[1]Total!B2-[1]Total!B3</f>
@@ -13503,17 +13502,19 @@
         <f>[1]Total!J2</f>
         <v>38750</v>
       </c>
-      <c r="K2" t="e">
-        <f>VLOOKUP(A2,RUBUSD!$A:$C,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="K2">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A2-2,RUBUSD!$C:$C)</f>
+        <v>58.4255</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A2,RUBUSD!$C:$C)</f>
+        <v>0</v>
+      </c>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
-        <f>[1]Total!A3</f>
-        <v>01.09.2017</v>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <f>[1]Total!B3-[1]Total!B4</f>
@@ -13551,15 +13552,14 @@
         <f>[1]Total!J3</f>
         <v>39852</v>
       </c>
-      <c r="K3" t="e">
-        <f>VLOOKUP(A3,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K3">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A3,RUBUSD!$C:$C)</f>
+        <v>58.545400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
-        <f>[1]Total!A4</f>
-        <v>01.08.2017</v>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <f>[1]Total!B4-[1]Total!B5</f>
@@ -13597,15 +13597,14 @@
         <f>[1]Total!J4</f>
         <v>41147</v>
       </c>
-      <c r="K4" t="e">
-        <f>VLOOKUP(A4,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K4">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A4,RUBUSD!$C:$C)</f>
+        <v>60.063299999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
-        <f>[1]Total!A5</f>
-        <v>01.07.2017</v>
+      <c r="A5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <f>[1]Total!B5-[1]Total!B6</f>
@@ -13643,15 +13642,14 @@
         <f>[1]Total!J5</f>
         <v>41160</v>
       </c>
-      <c r="K5" t="e">
-        <f>VLOOKUP(A5,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K5">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A5,RUBUSD!$C:$C)</f>
+        <v>59.386200000000002</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
-        <f>[1]Total!A6</f>
-        <v>01.06.2017</v>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <f>[1]Total!B6-[1]Total!B7</f>
@@ -13689,15 +13687,14 @@
         <f>[1]Total!J6</f>
         <v>40436</v>
       </c>
-      <c r="K6" t="e">
-        <f>VLOOKUP(A6,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K6">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A6,RUBUSD!$C:$C)</f>
+        <v>56.687600000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f>[1]Total!A7</f>
-        <v>01.05.2017</v>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <f>[1]Total!B7-[1]Total!B8</f>
@@ -13735,15 +13732,14 @@
         <f>[1]Total!J7</f>
         <v>40710</v>
       </c>
-      <c r="K7" t="e">
-        <f>VLOOKUP(A7,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K7">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A7-2,RUBUSD!$C:$C)</f>
+        <v>56.983800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
-        <f>[1]Total!A8</f>
-        <v>01.04.2017</v>
+      <c r="A8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <f>[1]Total!B8-[1]Total!B9</f>
@@ -13781,15 +13777,14 @@
         <f>[1]Total!J8</f>
         <v>40574</v>
       </c>
-      <c r="K8" t="e">
-        <f>VLOOKUP(A8,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K8">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A8,RUBUSD!$C:$C)</f>
+        <v>55.960599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
-        <f>[1]Total!A9</f>
-        <v>01.03.2017</v>
+      <c r="A9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <f>[1]Total!B9-[1]Total!B10</f>
@@ -13827,15 +13822,14 @@
         <f>[1]Total!J9</f>
         <v>43145</v>
       </c>
-      <c r="K9" t="e">
-        <f>VLOOKUP(A9,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K9">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A9,RUBUSD!$C:$C)</f>
+        <v>57.962699999999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f>[1]Total!A10</f>
-        <v>01.02.2017</v>
+      <c r="A10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <f>[1]Total!B10</f>
@@ -13873,15 +13867,14 @@
         <f>[1]Total!J10</f>
         <v>46031</v>
       </c>
-      <c r="K10" t="e">
-        <f>VLOOKUP(A10,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K10">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A10,RUBUSD!$C:$C)</f>
+        <v>60.085099999999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f>[1]Total!A11</f>
-        <v>01.01.2017</v>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f>[1]Total!B11-[1]Total!B12</f>
@@ -13919,15 +13912,14 @@
         <f>[1]Total!J11</f>
         <v>46011</v>
       </c>
-      <c r="K11" t="e">
-        <f>VLOOKUP(A11,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K11">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A11-1,RUBUSD!$C:$C)</f>
+        <v>60.6569</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f>[1]Total!A12</f>
-        <v>01.12.2016</v>
+      <c r="A12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <f>[1]Total!B12-[1]Total!B13</f>
@@ -13965,15 +13957,14 @@
         <f>[1]Total!J12</f>
         <v>50631</v>
       </c>
-      <c r="K12" t="e">
-        <f>VLOOKUP(A12,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K12">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A12,RUBUSD!$C:$C)</f>
+        <v>65.238200000000006</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f>[1]Total!A13</f>
-        <v>01.11.2016</v>
+      <c r="A13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <f>[1]Total!B13-[1]Total!B14</f>
@@ -14011,15 +14002,14 @@
         <f>[1]Total!J13</f>
         <v>51556</v>
       </c>
-      <c r="K13" t="e">
-        <f>VLOOKUP(A13,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K13">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A13,RUBUSD!$C:$C)</f>
+        <v>63.217399999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f>[1]Total!A14</f>
-        <v>01.10.2016</v>
+      <c r="A14" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <f>[1]Total!B14-[1]Total!B15</f>
@@ -14057,15 +14047,14 @@
         <f>[1]Total!J14</f>
         <v>51884</v>
       </c>
-      <c r="K14" t="e">
-        <f>VLOOKUP(A14,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K14">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A14,RUBUSD!$C:$C)</f>
+        <v>63.396000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f>[1]Total!A15</f>
-        <v>01.09.2016</v>
+      <c r="A15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <f>[1]Total!B15-[1]Total!B16</f>
@@ -14103,15 +14092,14 @@
         <f>[1]Total!J15</f>
         <v>53997</v>
       </c>
-      <c r="K15" t="e">
-        <f>VLOOKUP(A15,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K15">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A15,RUBUSD!$C:$C)</f>
+        <v>65.253500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f>[1]Total!A16</f>
-        <v>01.08.2016</v>
+      <c r="A16" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <f>[1]Total!B16-[1]Total!B17</f>
@@ -14149,15 +14137,14 @@
         <f>[1]Total!J16</f>
         <v>55939</v>
       </c>
-      <c r="K16" t="e">
-        <f>VLOOKUP(A16,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K16">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A16-2,RUBUSD!$C:$C)</f>
+        <v>67.051199999999994</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
-        <f>[1]Total!A17</f>
-        <v>01.07.2016</v>
+      <c r="A17" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <f>[1]Total!B17-[1]Total!B18</f>
@@ -14195,15 +14182,14 @@
         <f>[1]Total!J17</f>
         <v>53427</v>
       </c>
-      <c r="K17" t="e">
-        <f>VLOOKUP(A17,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K17">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A17,RUBUSD!$C:$C)</f>
+        <v>64.1755</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
-        <f>[1]Total!A18</f>
-        <v>01.06.2016</v>
+      <c r="A18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <f>[1]Total!B18-[1]Total!B19</f>
@@ -14241,15 +14227,14 @@
         <f>[1]Total!J18</f>
         <v>55822</v>
       </c>
-      <c r="K18" t="e">
-        <f>VLOOKUP(A18,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K18">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A18,RUBUSD!$C:$C)</f>
+        <v>65.996200000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
-        <f>[1]Total!A19</f>
-        <v>01.05.2016</v>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <f>[1]Total!B19-[1]Total!B20</f>
@@ -14287,15 +14272,14 @@
         <f>[1]Total!J19</f>
         <v>53696</v>
       </c>
-      <c r="K19" t="e">
-        <f>VLOOKUP(A19,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K19">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A19-1,RUBUSD!$C:$C)</f>
+        <v>64.333399999999997</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
-        <f>[1]Total!A20</f>
-        <v>01.04.2016</v>
+      <c r="A20" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <f>[1]Total!B20-[1]Total!B21</f>
@@ -14333,15 +14317,14 @@
         <f>[1]Total!J20</f>
         <v>56202</v>
       </c>
-      <c r="K20" t="e">
-        <f>VLOOKUP(A20,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K20">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A20,RUBUSD!$C:$C)</f>
+        <v>67.855199999999996</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
-        <f>[1]Total!A21</f>
-        <v>01.03.2016</v>
+      <c r="A21" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <f>[1]Total!B21-[1]Total!B22</f>
@@ -14379,15 +14362,14 @@
         <f>[1]Total!J21</f>
         <v>61843</v>
       </c>
-      <c r="K21" t="e">
-        <f>VLOOKUP(A21,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K21">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A21,RUBUSD!$C:$C)</f>
+        <v>75.8994</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
-        <f>[1]Total!A22</f>
-        <v>01.02.2016</v>
+      <c r="A22" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <f>[1]Total!B22</f>
@@ -14425,15 +14407,14 @@
         <f>[1]Total!J22</f>
         <v>61380</v>
       </c>
-      <c r="K22" t="e">
-        <f>VLOOKUP(A22,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K22">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A22-2,RUBUSD!$C:$C)</f>
+        <v>75.172300000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
-        <f>[1]Total!A23</f>
-        <v>01.01.2016</v>
+      <c r="A23" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <f>[1]Total!B23-[1]Total!B24</f>
@@ -14471,15 +14452,14 @@
         <f>[1]Total!J23</f>
         <v>58766</v>
       </c>
-      <c r="K23" t="e">
-        <f>VLOOKUP(A23,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K23">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A23,RUBUSD!$C:$C)</f>
+        <v>72.929900000000004</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
-        <f>[1]Total!A24</f>
-        <v>01.12.2015</v>
+      <c r="A24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <f>[1]Total!B24-[1]Total!B25</f>
@@ -14517,15 +14497,14 @@
         <f>[1]Total!J24</f>
         <v>53868</v>
       </c>
-      <c r="K24" t="e">
-        <f>VLOOKUP(A24,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K24">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A24,RUBUSD!$C:$C)</f>
+        <v>66.736999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
-        <f>[1]Total!A25</f>
-        <v>01.11.2015</v>
+      <c r="A25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <f>[1]Total!B25-[1]Total!B26</f>
@@ -14563,15 +14542,14 @@
         <f>[1]Total!J25</f>
         <v>52680</v>
       </c>
-      <c r="K25" t="e">
-        <f>VLOOKUP(A25,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K25">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A25-1,RUBUSD!$C:$C)</f>
+        <v>64.374200000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
-        <f>[1]Total!A26</f>
-        <v>01.10.2015</v>
+      <c r="A26" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <f>[1]Total!B26-[1]Total!B27</f>
@@ -14609,15 +14587,14 @@
         <f>[1]Total!J26</f>
         <v>55226</v>
       </c>
-      <c r="K26" t="e">
-        <f>VLOOKUP(A26,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K26">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A26,RUBUSD!$C:$C)</f>
+        <v>65.736400000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str">
-        <f>[1]Total!A27</f>
-        <v>01.09.2015</v>
+      <c r="A27" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="1">
         <f>[1]Total!B27-[1]Total!B28</f>
@@ -14655,15 +14632,14 @@
         <f>[1]Total!J27</f>
         <v>55861</v>
       </c>
-      <c r="K27" t="e">
-        <f>VLOOKUP(A27,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K27">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A27,RUBUSD!$C:$C)</f>
+        <v>66.715199999999996</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str">
-        <f>[1]Total!A28</f>
-        <v>01.08.2015</v>
+      <c r="A28" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <f>[1]Total!B28-[1]Total!B29</f>
@@ -14701,15 +14677,14 @@
         <f>[1]Total!J28</f>
         <v>49404</v>
       </c>
-      <c r="K28" t="e">
-        <f>VLOOKUP(A28,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K28">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A28,RUBUSD!$C:$C)</f>
+        <v>60.345799999999997</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
-        <f>[1]Total!A29</f>
-        <v>01.07.2015</v>
+      <c r="A29" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="1">
         <f>[1]Total!B29-[1]Total!B30</f>
@@ -14747,15 +14722,14 @@
         <f>[1]Total!J29</f>
         <v>46169</v>
       </c>
-      <c r="K29" t="e">
-        <f>VLOOKUP(A29,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K29">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A29,RUBUSD!$C:$C)</f>
+        <v>55.841299999999997</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
-        <f>[1]Total!A30</f>
-        <v>01.06.2015</v>
+      <c r="A30" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <f>[1]Total!B30-[1]Total!B31</f>
@@ -14793,15 +14767,14 @@
         <f>[1]Total!J30</f>
         <v>43497</v>
       </c>
-      <c r="K30" t="e">
-        <f>VLOOKUP(A30,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K30">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A30-2,RUBUSD!$C:$C)</f>
+        <v>52.971600000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
-        <f>[1]Total!A31</f>
-        <v>01.05.2015</v>
+      <c r="A31" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B31" s="1">
         <f>[1]Total!B31-[1]Total!B32</f>
@@ -14839,15 +14812,14 @@
         <f>[1]Total!J31</f>
         <v>41724</v>
       </c>
-      <c r="K31" t="e">
-        <f>VLOOKUP(A31,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K31">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A31,RUBUSD!$C:$C)</f>
+        <v>51.138800000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str">
-        <f>[1]Total!A32</f>
-        <v>01.04.2015</v>
+      <c r="A32" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="1">
         <f>[1]Total!B32-[1]Total!B33</f>
@@ -14885,15 +14857,14 @@
         <f>[1]Total!J32</f>
         <v>46569</v>
       </c>
-      <c r="K32" t="e">
-        <f>VLOOKUP(A32,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K32">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A32,RUBUSD!$C:$C)</f>
+        <v>57.65</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
-        <f>[1]Total!A33</f>
-        <v>01.03.2015</v>
+      <c r="A33" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <f>[1]Total!B33-[1]Total!B34</f>
@@ -14931,15 +14902,14 @@
         <f>[1]Total!J33</f>
         <v>49419</v>
       </c>
-      <c r="K33" t="e">
-        <f>VLOOKUP(A33,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K33">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A33-1,RUBUSD!$C:$C)</f>
+        <v>61.271799999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
-        <f>[1]Total!A34</f>
-        <v>01.02.2015</v>
+      <c r="A34" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <f>[1]Total!B34</f>
@@ -14977,15 +14947,14 @@
         <f>[1]Total!J34</f>
         <v>55312</v>
       </c>
-      <c r="K34" t="e">
-        <f>VLOOKUP(A34,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K34">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A34-1,RUBUSD!$C:$C)</f>
+        <v>68.929100000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
-        <f>[1]Total!A35</f>
-        <v>01.01.2015</v>
+      <c r="A35" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="1">
         <f>[1]Total!B35-[1]Total!B36</f>
@@ -15023,15 +14992,14 @@
         <f>[1]Total!J35</f>
         <v>45356</v>
       </c>
-      <c r="K35" t="e">
-        <f>VLOOKUP(A35,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K35">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A35,RUBUSD!$C:$C)</f>
+        <v>56.2376</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
-        <f>[1]Total!A36</f>
-        <v>01.12.2014</v>
+      <c r="A36" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B36" s="1">
         <f>[1]Total!B36-[1]Total!B37</f>
@@ -15069,15 +15037,14 @@
         <f>[1]Total!J36</f>
         <v>46371</v>
       </c>
-      <c r="K36" t="e">
-        <f>VLOOKUP(A36,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K36">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A36-2,RUBUSD!$C:$C)</f>
+        <v>49.322000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str">
-        <f>[1]Total!A37</f>
-        <v>01.11.2014</v>
+      <c r="A37" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B37" s="1">
         <f>[1]Total!B37-[1]Total!B38</f>
@@ -15115,15 +15082,14 @@
         <f>[1]Total!J37</f>
         <v>42063</v>
       </c>
-      <c r="K37" t="e">
-        <f>VLOOKUP(A37,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K37">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A37,RUBUSD!$C:$C)</f>
+        <v>41.962699999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str">
-        <f>[1]Total!A38</f>
-        <v>01.10.2014</v>
+      <c r="A38" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B38" s="1">
         <f>[1]Total!B38-[1]Total!B39</f>
@@ -15161,15 +15127,14 @@
         <f>[1]Total!J38</f>
         <v>37099</v>
       </c>
-      <c r="K38" t="e">
-        <f>VLOOKUP(A38,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K38">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A38,RUBUSD!$C:$C)</f>
+        <v>39.383600000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str">
-        <f>[1]Total!A39</f>
-        <v>01.09.2014</v>
+      <c r="A39" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B39" s="1">
         <f>[1]Total!B39-[1]Total!B40</f>
@@ -15207,15 +15172,14 @@
         <f>[1]Total!J39</f>
         <v>35409</v>
       </c>
-      <c r="K39" t="e">
-        <f>VLOOKUP(A39,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K39">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A39-2,RUBUSD!$C:$C)</f>
+        <v>36.931600000000003</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str">
-        <f>[1]Total!A40</f>
-        <v>01.08.2014</v>
+      <c r="A40" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="1">
         <f>[1]Total!B40-[1]Total!B41</f>
@@ -15253,15 +15217,14 @@
         <f>[1]Total!J40</f>
         <v>34704</v>
       </c>
-      <c r="K40" t="e">
-        <f>VLOOKUP(A40,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K40">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A40,RUBUSD!$C:$C)</f>
+        <v>35.443800000000003</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str">
-        <f>[1]Total!A41</f>
-        <v>01.07.2014</v>
+      <c r="A41" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B41" s="1">
         <f>[1]Total!B41-[1]Total!B42</f>
@@ -15299,15 +15262,14 @@
         <f>[1]Total!J41</f>
         <v>33275</v>
       </c>
-      <c r="K41" t="e">
-        <f>VLOOKUP(A41,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K41">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A41,RUBUSD!$C:$C)</f>
+        <v>33.843400000000003</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str">
-        <f>[1]Total!A42</f>
-        <v>01.06.2014</v>
+      <c r="A42" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B42" s="1">
         <f>[1]Total!B42-[1]Total!B43</f>
@@ -15345,15 +15307,14 @@
         <f>[1]Total!J42</f>
         <v>34800</v>
       </c>
-      <c r="K42" t="e">
-        <f>VLOOKUP(A42,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K42">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A42-2,RUBUSD!$C:$C)</f>
+        <v>34.648099999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
-        <f>[1]Total!A43</f>
-        <v>01.05.2014</v>
+      <c r="A43" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="1">
         <f>[1]Total!B43-[1]Total!B44</f>
@@ -15391,15 +15352,14 @@
         <f>[1]Total!J43</f>
         <v>35728</v>
       </c>
-      <c r="K43" t="e">
-        <f>VLOOKUP(A43,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K43">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A43,RUBUSD!$C:$C)</f>
+        <v>35.722700000000003</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str">
-        <f>[1]Total!A44</f>
-        <v>01.04.2014</v>
+      <c r="A44" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B44" s="1">
         <f>[1]Total!B44-[1]Total!B45</f>
@@ -15437,15 +15397,14 @@
         <f>[1]Total!J44</f>
         <v>35742</v>
       </c>
-      <c r="K44" t="e">
-        <f>VLOOKUP(A44,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K44">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A44,RUBUSD!$C:$C)</f>
+        <v>35.6053</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str">
-        <f>[1]Total!A45</f>
-        <v>01.03.2014</v>
+      <c r="A45" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B45" s="1">
         <f>[1]Total!B45-[1]Total!B46</f>
@@ -15483,15 +15442,14 @@
         <f>[1]Total!J45</f>
         <v>35993</v>
       </c>
-      <c r="K45" t="e">
-        <f>VLOOKUP(A45,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K45">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A45,RUBUSD!$C:$C)</f>
+        <v>36.184699999999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str">
-        <f>[1]Total!A46</f>
-        <v>01.02.2014</v>
+      <c r="A46" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B46" s="1">
         <f>[1]Total!B46</f>
@@ -15529,15 +15487,14 @@
         <f>[1]Total!J46</f>
         <v>35242</v>
       </c>
-      <c r="K46" t="e">
-        <f>VLOOKUP(A46,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K46">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A46,RUBUSD!$C:$C)</f>
+        <v>35.18</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str">
-        <f>[1]Total!A47</f>
-        <v>01.01.2014</v>
+      <c r="A47" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B47" s="1">
         <f>[1]Total!B47-[1]Total!B48</f>
@@ -15575,15 +15532,14 @@
         <f>[1]Total!J47</f>
         <v>32709</v>
       </c>
-      <c r="K47" t="e">
-        <f>VLOOKUP(A47,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K47">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A47,RUBUSD!$C:$C)</f>
+        <v>32.658700000000003</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str">
-        <f>[1]Total!A48</f>
-        <v>01.12.2013</v>
+      <c r="A48" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B48" s="1">
         <f>[1]Total!B48-[1]Total!B49</f>
@@ -15621,15 +15577,14 @@
         <f>[1]Total!J48</f>
         <v>34641</v>
       </c>
-      <c r="K48" t="e">
-        <f>VLOOKUP(A48,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K48">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A48-2,RUBUSD!$C:$C)</f>
+        <v>33.133200000000002</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str">
-        <f>[1]Total!A49</f>
-        <v>01.11.2013</v>
+      <c r="A49" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B49" s="1">
         <f>[1]Total!B49-[1]Total!B50</f>
@@ -15667,15 +15622,14 @@
         <f>[1]Total!J49</f>
         <v>35107</v>
       </c>
-      <c r="K49" t="e">
-        <f>VLOOKUP(A49,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K49">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A49,RUBUSD!$C:$C)</f>
+        <v>32.075800000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str">
-        <f>[1]Total!A50</f>
-        <v>01.10.2013</v>
+      <c r="A50" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B50" s="1">
         <f>[1]Total!B50-[1]Total!B51</f>
@@ -15713,15 +15667,14 @@
         <f>[1]Total!J50</f>
         <v>36205</v>
       </c>
-      <c r="K50" t="e">
-        <f>VLOOKUP(A50,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K50">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A50,RUBUSD!$C:$C)</f>
+        <v>32.483899999999998</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
-        <f>[1]Total!A51</f>
-        <v>01.09.2013</v>
+      <c r="A51" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B51" s="1">
         <f>[1]Total!B51-[1]Total!B52</f>
@@ -15759,15 +15712,14 @@
         <f>[1]Total!J51</f>
         <v>38420</v>
       </c>
-      <c r="K51" t="e">
-        <f>VLOOKUP(A51,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K51">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A51-2,RUBUSD!$C:$C)</f>
+        <v>33.1783</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
-        <f>[1]Total!A52</f>
-        <v>01.08.2013</v>
+      <c r="A52" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="1">
         <f>[1]Total!B52-[1]Total!B53</f>
@@ -15805,15 +15757,14 @@
         <f>[1]Total!J52</f>
         <v>37995</v>
       </c>
-      <c r="K52" t="e">
-        <f>VLOOKUP(A52,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K52">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A52,RUBUSD!$C:$C)</f>
+        <v>33.033000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
-        <f>[1]Total!A53</f>
-        <v>01.07.2013</v>
+      <c r="A53" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B53" s="1">
         <f>[1]Total!B53-[1]Total!B54</f>
@@ -15851,15 +15802,14 @@
         <f>[1]Total!J53</f>
         <v>37693</v>
       </c>
-      <c r="K53" t="e">
-        <f>VLOOKUP(A53,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K53">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A53-2,RUBUSD!$C:$C)</f>
+        <v>32.709000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
-        <f>[1]Total!A54</f>
-        <v>01.06.2013</v>
+      <c r="A54" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B54" s="1">
         <f>[1]Total!B54-[1]Total!B55</f>
@@ -15897,15 +15847,14 @@
         <f>[1]Total!J54</f>
         <v>36486</v>
       </c>
-      <c r="K54" t="e">
-        <f>VLOOKUP(A54,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K54">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A54,RUBUSD!$C:$C)</f>
+        <v>31.797899999999998</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
-        <f>[1]Total!A55</f>
-        <v>01.05.2013</v>
+      <c r="A55" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B55" s="1">
         <f>[1]Total!B55-[1]Total!B56</f>
@@ -15943,15 +15892,14 @@
         <f>[1]Total!J55</f>
         <v>36494</v>
       </c>
-      <c r="K55" t="e">
-        <f>VLOOKUP(A55,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K55">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A55,RUBUSD!$C:$C)</f>
+        <v>31.043299999999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
-        <f>[1]Total!A56</f>
-        <v>01.04.2013</v>
+      <c r="A56" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="1">
         <f>[1]Total!B56-[1]Total!B57</f>
@@ -15989,15 +15937,14 @@
         <f>[1]Total!J56</f>
         <v>36158</v>
       </c>
-      <c r="K56" t="e">
-        <f>VLOOKUP(A56,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K56">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A56-2,RUBUSD!$C:$C)</f>
+        <v>31.083400000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
-        <f>[1]Total!A57</f>
-        <v>01.03.2013</v>
+      <c r="A57" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B57" s="1">
         <f>[1]Total!B57-[1]Total!B58</f>
@@ -16035,15 +15982,14 @@
         <f>[1]Total!J57</f>
         <v>35725</v>
       </c>
-      <c r="K57" t="e">
-        <f>VLOOKUP(A57,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K57">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A57,RUBUSD!$C:$C)</f>
+        <v>30.5124</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
-        <f>[1]Total!A58</f>
-        <v>01.02.2013</v>
+      <c r="A58" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B58" s="1">
         <f>[1]Total!B58</f>
@@ -16081,15 +16027,14 @@
         <f>[1]Total!J58</f>
         <v>35383</v>
       </c>
-      <c r="K58" t="e">
-        <f>VLOOKUP(A58,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K58">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A58,RUBUSD!$C:$C)</f>
+        <v>30.016100000000002</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
-        <f>[1]Total!A59</f>
-        <v>01.01.2013</v>
+      <c r="A59" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B59" s="1">
         <f>[1]Total!B59-[1]Total!B60</f>
@@ -16127,15 +16072,14 @@
         <f>[1]Total!J59</f>
         <v>35581</v>
       </c>
-      <c r="K59" t="e">
-        <f>VLOOKUP(A59,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K59">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A59-2,RUBUSD!$C:$C)</f>
+        <v>30.372699999999998</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
-        <f>[1]Total!A60</f>
-        <v>01.12.2012</v>
+      <c r="A60" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B60" s="1">
         <f>[1]Total!B60-[1]Total!B61</f>
@@ -16173,15 +16117,14 @@
         <f>[1]Total!J60</f>
         <v>44369</v>
       </c>
-      <c r="K60" t="e">
-        <f>VLOOKUP(A60,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K60">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A60,RUBUSD!$C:$C)</f>
+        <v>30.811</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
-        <f>[1]Total!A61</f>
-        <v>01.11.2012</v>
+      <c r="A61" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B61" s="1">
         <f>[1]Total!B61-[1]Total!B62</f>
@@ -16219,15 +16162,14 @@
         <f>[1]Total!J61</f>
         <v>45176</v>
       </c>
-      <c r="K61" t="e">
-        <f>VLOOKUP(A61,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K61">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A61,RUBUSD!$C:$C)</f>
+        <v>31.374300000000002</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
-        <f>[1]Total!A62</f>
-        <v>01.10.2012</v>
+      <c r="A62" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B62" s="1">
         <f>[1]Total!B62-[1]Total!B63</f>
@@ -16265,15 +16207,14 @@
         <f>[1]Total!J62</f>
         <v>44359</v>
       </c>
-      <c r="K62" t="e">
-        <f>VLOOKUP(A62,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K62">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A62-2,RUBUSD!$C:$C)</f>
+        <v>30.916899999999998</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str">
-        <f>[1]Total!A63</f>
-        <v>01.09.2012</v>
+      <c r="A63" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B63" s="1">
         <f>[1]Total!B63-[1]Total!B64</f>
@@ -16311,15 +16252,14 @@
         <f>[1]Total!J63</f>
         <v>46734</v>
       </c>
-      <c r="K63" t="e">
-        <f>VLOOKUP(A63,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K63">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A63,RUBUSD!$C:$C)</f>
+        <v>32.566899999999997</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
-        <f>[1]Total!A64</f>
-        <v>01.08.2012</v>
+      <c r="A64" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B64" s="1">
         <f>[1]Total!B64-[1]Total!B65</f>
@@ -16357,15 +16297,14 @@
         <f>[1]Total!J64</f>
         <v>46826</v>
       </c>
-      <c r="K64" t="e">
-        <f>VLOOKUP(A64,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K64">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A64,RUBUSD!$C:$C)</f>
+        <v>32.205800000000004</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str">
-        <f>[1]Total!A65</f>
-        <v>01.07.2012</v>
+      <c r="A65" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B65" s="1">
         <f>[1]Total!B65-[1]Total!B66</f>
@@ -16403,15 +16342,14 @@
         <f>[1]Total!J65</f>
         <v>47547</v>
       </c>
-      <c r="K65" t="e">
-        <f>VLOOKUP(A65,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K65">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A65-2,RUBUSD!$C:$C)</f>
+        <v>32.941200000000002</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str">
-        <f>[1]Total!A66</f>
-        <v>01.06.2012</v>
+      <c r="A66" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B66" s="1">
         <f>[1]Total!B66-[1]Total!B67</f>
@@ -16449,15 +16387,14 @@
         <f>[1]Total!J66</f>
         <v>47567</v>
       </c>
-      <c r="K66" t="e">
-        <f>VLOOKUP(A66,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K66">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A66,RUBUSD!$C:$C)</f>
+        <v>32.917299999999997</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str">
-        <f>[1]Total!A67</f>
-        <v>01.05.2012</v>
+      <c r="A67" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B67" s="1">
         <f>[1]Total!B67-[1]Total!B68</f>
@@ -16495,15 +16432,14 @@
         <f>[1]Total!J67</f>
         <v>44181</v>
       </c>
-      <c r="K67" t="e">
-        <f>VLOOKUP(A67,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K67">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A67-2,RUBUSD!$C:$C)</f>
+        <v>29.3627</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str">
-        <f>[1]Total!A68</f>
-        <v>01.04.2012</v>
+      <c r="A68" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B68" s="1">
         <f>[1]Total!B68-[1]Total!B69</f>
@@ -16541,15 +16477,14 @@
         <f>[1]Total!J68</f>
         <v>43218</v>
       </c>
-      <c r="K68" t="e">
-        <f>VLOOKUP(A68,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K68">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A68-2,RUBUSD!$C:$C)</f>
+        <v>29.285299999999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
-        <f>[1]Total!A69</f>
-        <v>01.03.2012</v>
+      <c r="A69" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B69" s="1">
         <f>[1]Total!B69-[1]Total!B70</f>
@@ -16587,15 +16522,14 @@
         <f>[1]Total!J69</f>
         <v>42823</v>
       </c>
-      <c r="K69" t="e">
-        <f>VLOOKUP(A69,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K69">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A69,RUBUSD!$C:$C)</f>
+        <v>29.025300000000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str">
-        <f>[1]Total!A70</f>
-        <v>01.02.2012</v>
+      <c r="A70" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B70" s="1">
         <f>[1]Total!B70</f>
@@ -16633,15 +16567,14 @@
         <f>[1]Total!J70</f>
         <v>43723</v>
       </c>
-      <c r="K70" t="e">
-        <f>VLOOKUP(A70,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K70">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A70,RUBUSD!$C:$C)</f>
+        <v>30.313099999999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str">
-        <f>[1]Total!A71</f>
-        <v>01.01.2012</v>
+      <c r="A71" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B71" s="1">
         <f>[1]Total!B71-[1]Total!B72</f>
@@ -16679,15 +16612,14 @@
         <f>[1]Total!J71</f>
         <v>45918</v>
       </c>
-      <c r="K71" t="e">
-        <f>VLOOKUP(A71,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K71">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A71-2,RUBUSD!$C:$C)</f>
+        <v>32.0197</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str">
-        <f>[1]Total!A72</f>
-        <v>01.12.2011</v>
+      <c r="A72" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B72" s="1">
         <f>[1]Total!B72-[1]Total!B73</f>
@@ -16725,15 +16657,14 @@
         <f>[1]Total!J72</f>
         <v>45568</v>
       </c>
-      <c r="K72" t="e">
-        <f>VLOOKUP(A72,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K72">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A72,RUBUSD!$C:$C)</f>
+        <v>31.400099999999998</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str">
-        <f>[1]Total!A73</f>
-        <v>01.11.2011</v>
+      <c r="A73" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B73" s="1">
         <f>[1]Total!B73-[1]Total!B74</f>
@@ -16771,15 +16702,14 @@
         <f>[1]Total!J73</f>
         <v>44340</v>
       </c>
-      <c r="K73" t="e">
-        <f>VLOOKUP(A73,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K73">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A73,RUBUSD!$C:$C)</f>
+        <v>30.124500000000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str">
-        <f>[1]Total!A74</f>
-        <v>01.10.2011</v>
+      <c r="A74" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B74" s="1">
         <f>[1]Total!B74-[1]Total!B75</f>
@@ -16817,15 +16747,14 @@
         <f>[1]Total!J74</f>
         <v>47265</v>
       </c>
-      <c r="K74" t="e">
-        <f>VLOOKUP(A74,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K74">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A74,RUBUSD!$C:$C)</f>
+        <v>32.11</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str">
-        <f>[1]Total!A75</f>
-        <v>01.09.2011</v>
+      <c r="A75" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B75" s="1">
         <f>[1]Total!B75-[1]Total!B76</f>
@@ -16863,15 +16792,14 @@
         <f>[1]Total!J75</f>
         <v>42897</v>
       </c>
-      <c r="K75" t="e">
-        <f>VLOOKUP(A75,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K75">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A75,RUBUSD!$C:$C)</f>
+        <v>28.927800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="str">
-        <f>[1]Total!A76</f>
-        <v>01.08.2011</v>
+      <c r="A76" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B76" s="1">
         <f>[1]Total!B76-[1]Total!B77</f>
@@ -16909,15 +16837,14 @@
         <f>[1]Total!J76</f>
         <v>40926</v>
       </c>
-      <c r="K76" t="e">
-        <f>VLOOKUP(A76,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K76">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A76-2,RUBUSD!$C:$C)</f>
+        <v>27.679600000000001</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="str">
-        <f>[1]Total!A77</f>
-        <v>01.07.2011</v>
+      <c r="A77" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B77" s="1">
         <f>[1]Total!B77-[1]Total!B78</f>
@@ -16955,15 +16882,14 @@
         <f>[1]Total!J77</f>
         <v>41598</v>
       </c>
-      <c r="K77" t="e">
-        <f>VLOOKUP(A77,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K77">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A77,RUBUSD!$C:$C)</f>
+        <v>27.872599999999998</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="str">
-        <f>[1]Total!A78</f>
-        <v>01.06.2011</v>
+      <c r="A78" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B78" s="1">
         <f>[1]Total!B78-[1]Total!B79</f>
@@ -17001,15 +16927,14 @@
         <f>[1]Total!J78</f>
         <v>41331</v>
       </c>
-      <c r="K78" t="e">
-        <f>VLOOKUP(A78,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K78">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A78,RUBUSD!$C:$C)</f>
+        <v>27.980499999999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="str">
-        <f>[1]Total!A79</f>
-        <v>01.05.2011</v>
+      <c r="A79" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B79" s="1">
         <f>[1]Total!B79-[1]Total!B80</f>
@@ -17047,15 +16972,14 @@
         <f>[1]Total!J79</f>
         <v>40946</v>
       </c>
-      <c r="K79" t="e">
-        <f>VLOOKUP(A79,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K79">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A79-2,RUBUSD!$C:$C)</f>
+        <v>27.497699999999998</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str">
-        <f>[1]Total!A80</f>
-        <v>01.04.2011</v>
+      <c r="A80" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B80" s="1">
         <f>[1]Total!B80-[1]Total!B81</f>
@@ -17093,15 +17017,14 @@
         <f>[1]Total!J80</f>
         <v>42073</v>
       </c>
-      <c r="K80" t="e">
-        <f>VLOOKUP(A80,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K80">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A80,RUBUSD!$C:$C)</f>
+        <v>28.516200000000001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="str">
-        <f>[1]Total!A81</f>
-        <v>01.03.2011</v>
+      <c r="A81" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B81" s="1">
         <f>[1]Total!B81-[1]Total!B82</f>
@@ -17139,15 +17062,14 @@
         <f>[1]Total!J81</f>
         <v>42350</v>
       </c>
-      <c r="K81" t="e">
-        <f>VLOOKUP(A81,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K81">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A81,RUBUSD!$C:$C)</f>
+        <v>28.902799999999999</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str">
-        <f>[1]Total!A82</f>
-        <v>01.02.2011</v>
+      <c r="A82" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B82" s="1">
         <f>[1]Total!B82</f>
@@ -17185,15 +17107,14 @@
         <f>[1]Total!J82</f>
         <v>42896</v>
       </c>
-      <c r="K82" t="e">
-        <f>VLOOKUP(A82,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K82">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A82,RUBUSD!$C:$C)</f>
+        <v>29.8018</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="str">
-        <f>[1]Total!A83</f>
-        <v>01.01.2011</v>
+      <c r="A83" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B83" s="1">
         <f>[1]Total!B83-[1]Total!B84</f>
@@ -17231,15 +17152,14 @@
         <f>[1]Total!J83</f>
         <v>43563</v>
       </c>
-      <c r="K83" t="e">
-        <f>VLOOKUP(A83,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K83">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A83,RUBUSD!$C:$C)</f>
+        <v>30.3505</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str">
-        <f>[1]Total!A84</f>
-        <v>01.12.2010</v>
+      <c r="A84" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B84" s="1">
         <f>[1]Total!B84-[1]Total!B85</f>
@@ -17277,15 +17197,14 @@
         <f>[1]Total!J84</f>
         <v>45123</v>
       </c>
-      <c r="K84" t="e">
-        <f>VLOOKUP(A84,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K84">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A84,RUBUSD!$C:$C)</f>
+        <v>31.333500000000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str">
-        <f>[1]Total!A85</f>
-        <v>01.11.2010</v>
+      <c r="A85" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B85" s="1">
         <f>[1]Total!B85-[1]Total!B86</f>
@@ -17323,15 +17242,14 @@
         <f>[1]Total!J85</f>
         <v>43415</v>
       </c>
-      <c r="K85" t="e">
-        <f>VLOOKUP(A85,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K85">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A85-2,RUBUSD!$C:$C)</f>
+        <v>30.7821</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="str">
-        <f>[1]Total!A86</f>
-        <v>01.10.2010</v>
+      <c r="A86" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B86" s="1">
         <f>[1]Total!B86-[1]Total!B87</f>
@@ -17369,15 +17287,14 @@
         <f>[1]Total!J86</f>
         <v>41105</v>
       </c>
-      <c r="K86" t="e">
-        <f>VLOOKUP(A86,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K86">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A86,RUBUSD!$C:$C)</f>
+        <v>30.512599999999999</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="str">
-        <f>[1]Total!A87</f>
-        <v>01.09.2010</v>
+      <c r="A87" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B87" s="1">
         <f>[1]Total!B87-[1]Total!B88</f>
@@ -17415,15 +17332,14 @@
         <f>[1]Total!J87</f>
         <v>40688</v>
       </c>
-      <c r="K87" t="e">
-        <f>VLOOKUP(A87,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K87">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A87,RUBUSD!$C:$C)</f>
+        <v>30.866900000000001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="str">
-        <f>[1]Total!A88</f>
-        <v>01.08.2010</v>
+      <c r="A88" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B88" s="1">
         <f>[1]Total!B88-[1]Total!B89</f>
@@ -17461,15 +17377,14 @@
         <f>[1]Total!J88</f>
         <v>39209</v>
       </c>
-      <c r="K88" t="e">
-        <f>VLOOKUP(A88,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K88">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A88-2,RUBUSD!$C:$C)</f>
+        <v>30.217300000000002</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="str">
-        <f>[1]Total!A89</f>
-        <v>01.07.2010</v>
+      <c r="A89" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B89" s="1">
         <f>[1]Total!B89-[1]Total!B90</f>
@@ -17507,15 +17422,14 @@
         <f>[1]Total!J89</f>
         <v>39165</v>
       </c>
-      <c r="K89" t="e">
-        <f>VLOOKUP(A89,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K89">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A89,RUBUSD!$C:$C)</f>
+        <v>31.255400000000002</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="str">
-        <f>[1]Total!A90</f>
-        <v>01.06.2010</v>
+      <c r="A90" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B90" s="1">
         <f>[1]Total!B90-[1]Total!B91</f>
@@ -17553,15 +17467,14 @@
         <f>[1]Total!J90</f>
         <v>37584</v>
       </c>
-      <c r="K90" t="e">
-        <f>VLOOKUP(A90,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K90">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A90,RUBUSD!$C:$C)</f>
+        <v>30.74</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="str">
-        <f>[1]Total!A91</f>
-        <v>01.05.2010</v>
+      <c r="A91" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B91" s="1">
         <f>[1]Total!B91-[1]Total!B92</f>
@@ -17599,15 +17512,14 @@
         <f>[1]Total!J91</f>
         <v>35015</v>
       </c>
-      <c r="K91" t="e">
-        <f>VLOOKUP(A91,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K91">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A91,RUBUSD!$C:$C)</f>
+        <v>29.153700000000001</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="str">
-        <f>[1]Total!A92</f>
-        <v>01.04.2010</v>
+      <c r="A92" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B92" s="1">
         <f>[1]Total!B92-[1]Total!B93</f>
@@ -17645,15 +17557,14 @@
         <f>[1]Total!J92</f>
         <v>34136</v>
       </c>
-      <c r="K92" t="e">
-        <f>VLOOKUP(A92,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K92">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A92,RUBUSD!$C:$C)</f>
+        <v>29.4956</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="str">
-        <f>[1]Total!A93</f>
-        <v>01.03.2010</v>
+      <c r="A93" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B93" s="1">
         <f>[1]Total!B93-[1]Total!B94</f>
@@ -17691,15 +17602,14 @@
         <f>[1]Total!J93</f>
         <v>35688</v>
       </c>
-      <c r="K93" t="e">
-        <f>VLOOKUP(A93,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K93">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A93-2,RUBUSD!$C:$C)</f>
+        <v>30.038799999999998</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="str">
-        <f>[1]Total!A94</f>
-        <v>01.02.2010</v>
+      <c r="A94" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B94" s="1">
         <f>[1]Total!B94</f>
@@ -17737,15 +17647,14 @@
         <f>[1]Total!J94</f>
         <v>34696</v>
       </c>
-      <c r="K94" t="e">
-        <f>VLOOKUP(A94,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K94">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A94-2,RUBUSD!$C:$C)</f>
+        <v>30.4312</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="str">
-        <f>[1]Total!A95</f>
-        <v>01.01.2010</v>
+      <c r="A95" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B95" s="1">
         <f>[1]Total!B95-[1]Total!B96</f>
@@ -17783,15 +17692,14 @@
         <f>[1]Total!J95</f>
         <v>33507</v>
       </c>
-      <c r="K95" t="e">
-        <f>VLOOKUP(A95,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K95">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A95,RUBUSD!$C:$C)</f>
+        <v>30.185099999999998</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="str">
-        <f>[1]Total!A96</f>
-        <v>01.12.2009</v>
+      <c r="A96" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B96" s="1">
         <f>[1]Total!B96-[1]Total!B97</f>
@@ -17829,15 +17737,14 @@
         <f>[1]Total!J96</f>
         <v>31324.400000000001</v>
       </c>
-      <c r="K96" t="e">
-        <f>VLOOKUP(A96,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K96">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A96,RUBUSD!$C:$C)</f>
+        <v>29.0687</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="str">
-        <f>[1]Total!A97</f>
-        <v>01.11.2009</v>
+      <c r="A97" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B97" s="1">
         <f>[1]Total!B97-[1]Total!B98</f>
@@ -17875,15 +17782,14 @@
         <f>[1]Total!J97</f>
         <v>30362.6</v>
       </c>
-      <c r="K97" t="e">
-        <f>VLOOKUP(A97,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K97">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A97-2,RUBUSD!$C:$C)</f>
+        <v>29.344100000000001</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="str">
-        <f>[1]Total!A98</f>
-        <v>01.10.2009</v>
+      <c r="A98" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B98" s="1">
         <f>[1]Total!B98-[1]Total!B99</f>
@@ -17921,15 +17827,14 @@
         <f>[1]Total!J98</f>
         <v>30354.3</v>
       </c>
-      <c r="K98" t="e">
-        <f>VLOOKUP(A98,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K98">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A98,RUBUSD!$C:$C)</f>
+        <v>30.008700000000001</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="str">
-        <f>[1]Total!A99</f>
-        <v>01.09.2009</v>
+      <c r="A99" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B99" s="1">
         <f>[1]Total!B99-[1]Total!B100</f>
@@ -17967,15 +17872,14 @@
         <f>[1]Total!J99</f>
         <v>29992.2</v>
       </c>
-      <c r="K99" t="e">
-        <f>VLOOKUP(A99,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K99">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A99,RUBUSD!$C:$C)</f>
+        <v>31.839700000000001</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="str">
-        <f>[1]Total!A100</f>
-        <v>01.08.2009</v>
+      <c r="A100" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B100" s="1">
         <f>[1]Total!B100-[1]Total!B101</f>
@@ -18013,15 +17917,14 @@
         <f>[1]Total!J100</f>
         <v>27651.1</v>
       </c>
-      <c r="K100" t="e">
-        <f>VLOOKUP(A100,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K100">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A100,RUBUSD!$C:$C)</f>
+        <v>31.153300000000002</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="str">
-        <f>[1]Total!A101</f>
-        <v>01.07.2009</v>
+      <c r="A101" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B101" s="1">
         <f>[1]Total!B101-[1]Total!B102</f>
@@ -18059,15 +17962,14 @@
         <f>[1]Total!J101</f>
         <v>26646.7</v>
       </c>
-      <c r="K101" t="e">
-        <f>VLOOKUP(A101,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K101">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A101,RUBUSD!$C:$C)</f>
+        <v>31.038499999999999</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="str">
-        <f>[1]Total!A102</f>
-        <v>01.06.2009</v>
+      <c r="A102" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B102" s="1">
         <f>[1]Total!B102-[1]Total!B103</f>
@@ -18105,15 +18007,14 @@
         <f>[1]Total!J102</f>
         <v>26602</v>
       </c>
-      <c r="K102" t="e">
-        <f>VLOOKUP(A102,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K102">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A102-2,RUBUSD!$C:$C)</f>
+        <v>30.984300000000001</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="str">
-        <f>[1]Total!A103</f>
-        <v>01.05.2009</v>
+      <c r="A103" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B103" s="1">
         <f>[1]Total!B103-[1]Total!B104</f>
@@ -18151,15 +18052,14 @@
         <f>[1]Total!J103</f>
         <v>26868.400000000001</v>
       </c>
-      <c r="K103" t="e">
-        <f>VLOOKUP(A103,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K103">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A103,RUBUSD!$C:$C)</f>
+        <v>32.973999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="str">
-        <f>[1]Total!A104</f>
-        <v>01.04.2009</v>
+      <c r="A104" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B104" s="1">
         <f>[1]Total!B104-[1]Total!B105</f>
@@ -18197,9 +18097,9 @@
         <f>[1]Total!J104</f>
         <v>24617.599999999999</v>
       </c>
-      <c r="K104" t="e">
-        <f>VLOOKUP(A104,RUBUSD!$A:$C,2)</f>
-        <v>#N/A</v>
+      <c r="K104">
+        <f>SUMIF(RUBUSD!$A:$A,'Total prep'!A104,RUBUSD!$C:$C)</f>
+        <v>33.903199999999998</v>
       </c>
     </row>
   </sheetData>
